--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Lgi1</t>
@@ -89,15 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,13 +531,13 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H2">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.095045</v>
+        <v>0.4578845</v>
       </c>
       <c r="N2">
-        <v>0.19009</v>
+        <v>0.9157690000000001</v>
       </c>
       <c r="O2">
-        <v>0.03541474254866415</v>
+        <v>0.1062139753234554</v>
       </c>
       <c r="P2">
-        <v>0.03279067460745289</v>
+        <v>0.1055270602873987</v>
       </c>
       <c r="Q2">
-        <v>3.887340500000001E-05</v>
+        <v>0.0161564545825</v>
       </c>
       <c r="R2">
-        <v>0.00023324043</v>
+        <v>0.06462581833</v>
       </c>
       <c r="S2">
-        <v>0.03541474254866415</v>
+        <v>0.1062139753234554</v>
       </c>
       <c r="T2">
-        <v>0.03279067460745289</v>
+        <v>0.1055270602873987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,13 +593,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H3">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +620,22 @@
         <v>0.16837</v>
       </c>
       <c r="O3">
-        <v>0.02091213005389932</v>
+        <v>0.01301874674014239</v>
       </c>
       <c r="P3">
-        <v>0.02904395751305615</v>
+        <v>0.01940182637825622</v>
       </c>
       <c r="Q3">
-        <v>2.295444333333333E-05</v>
+        <v>0.001980311816666666</v>
       </c>
       <c r="R3">
-        <v>0.00020658999</v>
+        <v>0.0118818709</v>
       </c>
       <c r="S3">
-        <v>0.02091213005389932</v>
+        <v>0.01301874674014239</v>
       </c>
       <c r="T3">
-        <v>0.02904395751305615</v>
+        <v>0.01940182637825622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,19 +649,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H4">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,220 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04162233333333334</v>
+        <v>3.796955</v>
       </c>
       <c r="N4">
-        <v>0.124867</v>
+        <v>7.593909999999999</v>
       </c>
       <c r="O4">
-        <v>0.01550890861460026</v>
+        <v>0.8807672779364022</v>
       </c>
       <c r="P4">
-        <v>0.02153965577467947</v>
+        <v>0.8750711133343451</v>
       </c>
       <c r="Q4">
-        <v>1.702353433333334E-05</v>
+        <v>0.133975557175</v>
       </c>
       <c r="R4">
-        <v>0.000153211809</v>
+        <v>0.5359022286999999</v>
       </c>
       <c r="S4">
-        <v>0.01550890861460026</v>
+        <v>0.8807672779364022</v>
       </c>
       <c r="T4">
-        <v>0.02153965577467947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.000409</v>
-      </c>
-      <c r="H5">
-        <v>0.001227</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.159188</v>
-      </c>
-      <c r="N5">
-        <v>4.318376</v>
-      </c>
-      <c r="O5">
-        <v>0.804535610859751</v>
-      </c>
-      <c r="P5">
-        <v>0.7449232587123678</v>
-      </c>
-      <c r="Q5">
-        <v>0.000883107892</v>
-      </c>
-      <c r="R5">
-        <v>0.005298647352</v>
-      </c>
-      <c r="S5">
-        <v>0.804535610859751</v>
-      </c>
-      <c r="T5">
-        <v>0.7449232587123678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.000409</v>
-      </c>
-      <c r="H6">
-        <v>0.001227</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.113491</v>
-      </c>
-      <c r="N6">
-        <v>0.340473</v>
-      </c>
-      <c r="O6">
-        <v>0.04228791147972479</v>
-      </c>
-      <c r="P6">
-        <v>0.05873186046411336</v>
-      </c>
-      <c r="Q6">
-        <v>4.6417819E-05</v>
-      </c>
-      <c r="R6">
-        <v>0.000417760371</v>
-      </c>
-      <c r="S6">
-        <v>0.04228791147972479</v>
-      </c>
-      <c r="T6">
-        <v>0.05873186046411336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.000409</v>
-      </c>
-      <c r="H7">
-        <v>0.001227</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.2182996666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.654899</v>
-      </c>
-      <c r="O7">
-        <v>0.08134069644336051</v>
-      </c>
-      <c r="P7">
-        <v>0.1129705929283302</v>
-      </c>
-      <c r="Q7">
-        <v>8.928456366666667E-05</v>
-      </c>
-      <c r="R7">
-        <v>0.000803561073</v>
-      </c>
-      <c r="S7">
-        <v>0.08134069644336051</v>
-      </c>
-      <c r="T7">
-        <v>0.1129705929283302</v>
+        <v>0.8750711133343451</v>
       </c>
     </row>
   </sheetData>
